--- a/sources/Romanian_data.xlsx
+++ b/sources/Romanian_data.xlsx
@@ -1704,9 +1704,6 @@
     <t>a intra</t>
   </si>
   <si>
-    <t>în</t>
-  </si>
-  <si>
     <t>a învinge</t>
   </si>
   <si>
@@ -1947,15 +1944,9 @@
     <t>a se lipi</t>
   </si>
   <si>
-    <t>în_față</t>
-  </si>
-  <si>
     <t>a fi fericit</t>
   </si>
   <si>
-    <t>grație</t>
-  </si>
-  <si>
     <t>NV. (Не уверен, что это сильно грамматикализованный предлог)</t>
   </si>
   <si>
@@ -2136,9 +2127,6 @@
     <t>NOMcu</t>
   </si>
   <si>
-    <t>NOMîn</t>
-  </si>
-  <si>
     <t>NOMdin</t>
   </si>
   <si>
@@ -2160,16 +2148,28 @@
     <t>NOMa</t>
   </si>
   <si>
-    <t>NOMîn_față</t>
-  </si>
-  <si>
-    <t>NOMgrație</t>
-  </si>
-  <si>
     <t>NOMpe</t>
   </si>
   <si>
     <t>NOMdin_cauza</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>in_fata</t>
+  </si>
+  <si>
+    <t>gratie</t>
+  </si>
+  <si>
+    <t>NOMin</t>
+  </si>
+  <si>
+    <t>NOMin_fata</t>
+  </si>
+  <si>
+    <t>NOMgratie</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2565,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="4"/>
@@ -2692,7 +2692,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2727,15 +2727,15 @@
       <c r="L3" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="5" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -2770,17 +2770,17 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -2854,15 +2854,15 @@
       <c r="J6" s="7"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>549</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="S6" s="4" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2905,7 +2905,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -2938,15 +2938,15 @@
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>553</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -3104,17 +3104,17 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -3145,11 +3145,11 @@
         <v>538</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3182,7 +3182,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>540</v>
@@ -3198,7 +3198,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -3223,17 +3223,17 @@
         <v>74</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3241,7 +3241,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -3266,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>540</v>
@@ -3282,7 +3282,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -3307,7 +3307,7 @@
         <v>82</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>540</v>
@@ -3348,7 +3348,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>538</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3391,7 +3391,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>540</v>
@@ -3432,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>540</v>
@@ -3442,15 +3442,15 @@
       <c r="L20" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>569</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="7"/>
+      <c r="S20" s="4" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -3475,7 +3475,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>540</v>
@@ -3516,17 +3516,17 @@
         <v>102</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="4"/>
@@ -3534,7 +3534,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="7"/>
+      <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -3559,7 +3559,7 @@
         <v>106</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>540</v>
@@ -3600,7 +3600,7 @@
         <v>110</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>538</v>
@@ -3610,17 +3610,17 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -3645,7 +3645,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>538</v>
@@ -3655,17 +3655,17 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>545</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="4"/>
+      <c r="S25" s="9" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
@@ -3690,27 +3690,27 @@
         <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
@@ -3735,7 +3735,7 @@
         <v>122</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>540</v>
@@ -3776,7 +3776,7 @@
         <v>126</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>540</v>
@@ -3817,7 +3817,7 @@
         <v>130</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>540</v>
@@ -3858,7 +3858,7 @@
         <v>134</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>540</v>
@@ -3874,7 +3874,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -3899,7 +3899,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>538</v>
@@ -3909,17 +3909,17 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>582</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
@@ -3944,7 +3944,7 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>540</v>
@@ -3995,17 +3995,17 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
@@ -4030,7 +4030,7 @@
         <v>150</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>540</v>
@@ -4071,17 +4071,17 @@
         <v>154</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4114,7 +4114,7 @@
         <v>158</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>540</v>
@@ -4155,7 +4155,7 @@
         <v>162</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>540</v>
@@ -4196,7 +4196,7 @@
         <v>166</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>538</v>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>589</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M38" s="9"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="4"/>
+      <c r="S38" s="9" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
@@ -4257,7 +4257,7 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="4"/>
+      <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
@@ -4282,7 +4282,7 @@
         <v>173</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>540</v>
@@ -4323,7 +4323,7 @@
         <v>177</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>540</v>
@@ -4364,7 +4364,7 @@
         <v>181</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>540</v>
@@ -4405,7 +4405,7 @@
         <v>185</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>540</v>
@@ -4415,15 +4415,15 @@
       <c r="L43" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>594</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
@@ -4448,7 +4448,7 @@
         <v>189</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>548</v>
@@ -4456,15 +4456,15 @@
       <c r="J44" s="7"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
-        <v>596</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="4"/>
+      <c r="S44" s="4" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
@@ -4489,7 +4489,7 @@
         <v>193</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>540</v>
@@ -4530,7 +4530,7 @@
         <v>197</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>540</v>
@@ -4571,7 +4571,7 @@
         <v>201</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>540</v>
@@ -4612,17 +4612,17 @@
         <v>205</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="4"/>
@@ -4630,7 +4630,7 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="4"/>
+      <c r="S48" s="11"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
@@ -4655,17 +4655,17 @@
         <v>209</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -4698,7 +4698,7 @@
         <v>213</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>540</v>
@@ -4739,7 +4739,7 @@
         <v>217</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>540</v>
@@ -4749,15 +4749,15 @@
       <c r="L51" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>604</v>
-      </c>
+      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="4"/>
+      <c r="S51" s="4" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
@@ -4782,7 +4782,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>538</v>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>606</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-      <c r="S52" s="4"/>
+      <c r="S52" s="4" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
@@ -4827,7 +4827,7 @@
         <v>225</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>540</v>
@@ -4868,7 +4868,7 @@
         <v>229</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>540</v>
@@ -4909,7 +4909,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>538</v>
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>610</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="4"/>
+      <c r="S55" s="4" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
@@ -4954,7 +4954,7 @@
         <v>237</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>540</v>
@@ -4995,7 +4995,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>543</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -5038,7 +5038,7 @@
         <v>245</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>540</v>
@@ -5054,7 +5054,7 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
-      <c r="S58" s="4"/>
+      <c r="S58" s="11"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
@@ -5079,7 +5079,7 @@
         <v>249</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>543</v>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>548</v>
@@ -5130,15 +5130,15 @@
       <c r="J60" s="7"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
-        <v>616</v>
-      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="4"/>
+      <c r="S60" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
@@ -5163,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>540</v>
@@ -5204,7 +5204,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>543</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -5247,7 +5247,7 @@
         <v>265</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>538</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -5290,7 +5290,7 @@
         <v>269</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>540</v>
@@ -5331,7 +5331,7 @@
         <v>273</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>538</v>
@@ -5341,17 +5341,17 @@
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="4"/>
+      <c r="S65" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
@@ -5376,7 +5376,7 @@
         <v>277</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>548</v>
@@ -5384,15 +5384,15 @@
       <c r="J66" s="7"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
-        <v>623</v>
-      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="4"/>
+      <c r="S66" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
@@ -5417,7 +5417,7 @@
         <v>281</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>540</v>
@@ -5458,17 +5458,17 @@
         <v>285</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -5501,7 +5501,7 @@
         <v>289</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>540</v>
@@ -5542,7 +5542,7 @@
         <v>293</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>540</v>
@@ -5583,7 +5583,7 @@
         <v>297</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>540</v>
@@ -5624,7 +5624,7 @@
         <v>301</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>540</v>
@@ -5665,7 +5665,7 @@
         <v>305</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>540</v>
@@ -5706,7 +5706,7 @@
         <v>309</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>538</v>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
-      <c r="S74" s="4"/>
+      <c r="S74" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
@@ -5751,7 +5751,7 @@
         <v>313</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>540</v>
@@ -5792,7 +5792,7 @@
         <v>317</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>540</v>
@@ -5833,7 +5833,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>540</v>
@@ -5843,15 +5843,15 @@
       <c r="L77" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>635</v>
-      </c>
+      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-      <c r="S77" s="4"/>
+      <c r="S77" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
@@ -5876,7 +5876,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>540</v>
@@ -5917,7 +5917,7 @@
         <v>329</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>540</v>
@@ -5958,7 +5958,7 @@
         <v>333</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>540</v>
@@ -5999,7 +5999,7 @@
         <v>337</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>538</v>
@@ -6009,17 +6009,17 @@
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-      <c r="S81" s="4"/>
+      <c r="S81" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
@@ -6044,7 +6044,7 @@
         <v>341</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>538</v>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -6087,17 +6087,17 @@
         <v>345</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -6130,27 +6130,27 @@
         <v>349</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>644</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="4"/>
+      <c r="S84" s="4" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
@@ -6175,7 +6175,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>538</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -6218,7 +6218,7 @@
         <v>357</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>540</v>
@@ -6259,7 +6259,7 @@
         <v>361</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>540</v>
@@ -6300,7 +6300,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>540</v>
@@ -6316,7 +6316,7 @@
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
-      <c r="S88" s="4"/>
+      <c r="S88" s="11"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
@@ -6341,7 +6341,7 @@
         <v>369</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>543</v>
@@ -6351,17 +6351,17 @@
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>650</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="4"/>
+      <c r="S89" s="4" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
@@ -6386,7 +6386,7 @@
         <v>373</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>540</v>
@@ -6427,7 +6427,7 @@
         <v>377</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>548</v>
@@ -6435,15 +6435,15 @@
       <c r="J91" s="7"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="4"/>
+      <c r="S91" s="4" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
@@ -6468,27 +6468,27 @@
         <v>381</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>655</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="4"/>
+      <c r="S92" s="4" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
@@ -6513,7 +6513,7 @@
         <v>385</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>540</v>
@@ -6523,15 +6523,15 @@
       <c r="L93" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>656</v>
-      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
-      <c r="S93" s="4"/>
+      <c r="S93" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
@@ -6556,7 +6556,7 @@
         <v>389</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>540</v>
@@ -6597,7 +6597,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>538</v>
@@ -6607,17 +6607,17 @@
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>610</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
-      <c r="S95" s="4"/>
+      <c r="S95" s="4" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
@@ -6642,27 +6642,27 @@
         <v>397</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
-      <c r="S96" s="4"/>
+      <c r="S96" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
@@ -6687,7 +6687,7 @@
         <v>401</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>540</v>
@@ -6728,7 +6728,7 @@
         <v>405</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>540</v>
@@ -6769,7 +6769,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>538</v>
@@ -6779,17 +6779,17 @@
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
-      <c r="S99" s="4"/>
+      <c r="S99" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
@@ -6814,7 +6814,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>538</v>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
-      <c r="S100" s="4"/>
+      <c r="S100" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
@@ -6859,7 +6859,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>540</v>
@@ -6900,7 +6900,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>540</v>
@@ -6910,15 +6910,15 @@
       <c r="L102" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M102" s="4" t="s">
-        <v>665</v>
-      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
-      <c r="S102" s="4"/>
+      <c r="S102" s="4" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
@@ -6943,7 +6943,7 @@
         <v>425</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>540</v>
@@ -6953,15 +6953,15 @@
       <c r="L103" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>667</v>
-      </c>
+      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
-      <c r="S103" s="4"/>
+      <c r="S103" s="4" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
@@ -6986,7 +6986,7 @@
         <v>428</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>540</v>
@@ -7027,17 +7027,17 @@
         <v>432</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -7070,7 +7070,7 @@
         <v>436</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>540</v>
@@ -7111,7 +7111,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>540</v>
@@ -7152,7 +7152,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>540</v>
@@ -7193,7 +7193,7 @@
         <v>447</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>540</v>
@@ -7234,7 +7234,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>540</v>
@@ -7250,7 +7250,7 @@
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
+      <c r="S110" s="4"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
@@ -7275,7 +7275,7 @@
         <v>455</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>540</v>
@@ -7291,7 +7291,7 @@
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
+      <c r="S111" s="4"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
@@ -7316,7 +7316,7 @@
         <v>459</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>548</v>
@@ -7324,15 +7324,15 @@
       <c r="J112" s="7"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="4" t="s">
-        <v>675</v>
-      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
+      <c r="S112" s="4" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
@@ -7357,7 +7357,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>538</v>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -7375,7 +7375,7 @@
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
+      <c r="S113" s="4"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
@@ -7400,7 +7400,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>538</v>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -7418,7 +7418,7 @@
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
+      <c r="S114" s="4"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
@@ -7449,21 +7449,21 @@
         <v>538</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>678</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
+      <c r="S115" s="4" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
@@ -7488,7 +7488,7 @@
         <v>475</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>543</v>
@@ -7498,17 +7498,17 @@
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
+      <c r="S116" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
@@ -7533,7 +7533,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>540</v>
@@ -7549,7 +7549,7 @@
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
+      <c r="S117" s="4"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
@@ -7574,27 +7574,27 @@
         <v>483</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>683</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
+      <c r="S118" s="4" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
@@ -7619,7 +7619,7 @@
         <v>487</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>538</v>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -7662,7 +7662,7 @@
         <v>490</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>543</v>
@@ -7672,17 +7672,17 @@
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>685</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
-      <c r="S120" s="4"/>
+      <c r="S120" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
@@ -7707,7 +7707,7 @@
         <v>494</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>543</v>
@@ -7717,17 +7717,17 @@
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>589</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
-      <c r="S121" s="4"/>
+      <c r="S121" s="4" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
@@ -7752,7 +7752,7 @@
         <v>498</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>540</v>
@@ -7793,27 +7793,27 @@
         <v>502</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>689</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
-      <c r="S123" s="4"/>
+      <c r="S123" s="4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
@@ -7838,7 +7838,7 @@
         <v>506</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>548</v>
@@ -7846,15 +7846,15 @@
       <c r="J124" s="7"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="4" t="s">
-        <v>691</v>
-      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
       <c r="R124" s="12"/>
-      <c r="S124" s="4"/>
+      <c r="S124" s="4" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
@@ -7879,7 +7879,7 @@
         <v>510</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>540</v>
@@ -7920,7 +7920,7 @@
         <v>514</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>538</v>
@@ -7930,17 +7930,17 @@
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
       <c r="R126" s="12"/>
-      <c r="S126" s="4"/>
+      <c r="S126" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
@@ -7965,7 +7965,7 @@
         <v>518</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>540</v>
@@ -8006,27 +8006,27 @@
         <v>522</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
       <c r="R128" s="12"/>
-      <c r="S128" s="4"/>
+      <c r="S128" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
@@ -8051,7 +8051,7 @@
         <v>526</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>548</v>
@@ -8059,15 +8059,15 @@
       <c r="J129" s="7"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
       <c r="R129" s="12"/>
-      <c r="S129" s="4"/>
+      <c r="S129" s="4" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
@@ -8092,7 +8092,7 @@
         <v>530</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>540</v>
@@ -8133,7 +8133,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>543</v>
@@ -8143,17 +8143,17 @@
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
       <c r="R131" s="12"/>
-      <c r="S131" s="4"/>
+      <c r="S131" s="4" t="s">
+        <v>545</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Romanian_data.xlsx
+++ b/sources/Romanian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="717">
   <si>
     <t>language_no</t>
   </si>
@@ -2103,9 +2103,6 @@
     <t>a fi trist</t>
   </si>
   <si>
-    <t>din_cauza</t>
-  </si>
-  <si>
     <t xml:space="preserve">a supără </t>
   </si>
   <si>
@@ -2118,58 +2115,64 @@
     <t>a fi rușine</t>
   </si>
   <si>
-    <t>ACCNOM</t>
-  </si>
-  <si>
-    <t>DATde</t>
-  </si>
-  <si>
-    <t>NOMcu</t>
-  </si>
-  <si>
-    <t>NOMdin</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>NOMla</t>
-  </si>
-  <si>
-    <t>NOMde</t>
-  </si>
-  <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>NOMa</t>
-  </si>
-  <si>
-    <t>NOMpe</t>
-  </si>
-  <si>
-    <t>NOMdin_cauza</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>in_fata</t>
-  </si>
-  <si>
     <t>gratie</t>
   </si>
   <si>
-    <t>NOMin</t>
-  </si>
-  <si>
-    <t>NOMin_fata</t>
-  </si>
-  <si>
-    <t>NOMgratie</t>
+    <t>ACC_NOM</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>DAT_de</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>NOM_cu</t>
+  </si>
+  <si>
+    <t>NOM_in</t>
+  </si>
+  <si>
+    <t>NOM_din</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_la</t>
+  </si>
+  <si>
+    <t>NOM_de</t>
+  </si>
+  <si>
+    <t>NOM_a</t>
+  </si>
+  <si>
+    <t>NOM_gratie</t>
+  </si>
+  <si>
+    <t>NOM_pe</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
+  </si>
+  <si>
+    <t>din.cauza</t>
+  </si>
+  <si>
+    <t>NOM_din.cauza</t>
+  </si>
+  <si>
+    <t>in.fata</t>
+  </si>
+  <si>
+    <t>NOM_in.fata</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
@@ -2272,7 +2275,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2564,32 +2566,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" customWidth="1"/>
-    <col min="11" max="11" width="6" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="46" style="10" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="9" customWidth="1"/>
+    <col min="11" max="11" width="6" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="46" style="9" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2682,17 +2682,19 @@
       <c r="J2" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="M2" s="11"/>
+        <v>699</v>
+      </c>
+      <c r="M2" s="10"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2720,19 +2722,23 @@
         <v>539</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="5" t="s">
         <v>541</v>
       </c>
@@ -2768,16 +2774,18 @@
       <c r="J4" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="4" t="s">
         <v>545</v>
       </c>
@@ -2808,19 +2816,23 @@
         <v>546</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L5" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -2851,15 +2863,19 @@
       <c r="I6" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="4" t="s">
         <v>549</v>
       </c>
@@ -2895,16 +2911,18 @@
       <c r="J7" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -2935,15 +2953,19 @@
       <c r="I8" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="4" t="s">
         <v>553</v>
       </c>
@@ -2974,19 +2996,23 @@
         <v>554</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -3015,19 +3041,23 @@
         <v>555</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L10" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -3056,19 +3086,23 @@
         <v>556</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L11" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -3102,16 +3136,18 @@
       <c r="J12" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="4" t="s">
         <v>558</v>
       </c>
@@ -3145,18 +3181,20 @@
         <v>538</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -3185,19 +3223,23 @@
         <v>560</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -3231,16 +3273,18 @@
       <c r="J15" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -3269,19 +3313,23 @@
         <v>563</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -3310,19 +3358,23 @@
         <v>564</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L17" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -3356,16 +3408,18 @@
       <c r="J18" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -3394,19 +3448,23 @@
         <v>566</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L19" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -3434,20 +3492,24 @@
       <c r="H20" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="4"/>
+      <c r="I20" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L20" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="4" t="s">
         <v>568</v>
       </c>
@@ -3478,19 +3540,23 @@
         <v>569</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L21" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -3524,17 +3590,19 @@
       <c r="J22" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="M22" s="11"/>
+        <v>707</v>
+      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -3562,19 +3630,23 @@
         <v>572</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L23" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -3608,16 +3680,18 @@
       <c r="J24" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="4" t="s">
         <v>558</v>
       </c>
@@ -3653,17 +3727,19 @@
       <c r="J25" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="M25" s="9"/>
+        <v>703</v>
+      </c>
+      <c r="M25" s="8"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="9" t="s">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="8" t="s">
         <v>545</v>
       </c>
     </row>
@@ -3698,16 +3774,18 @@
       <c r="J26" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L26" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
       <c r="S26" s="4" t="s">
         <v>558</v>
       </c>
@@ -3738,19 +3816,23 @@
         <v>576</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L27" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -3779,19 +3861,23 @@
         <v>577</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L28" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -3820,19 +3906,23 @@
         <v>578</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L29" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -3861,19 +3951,23 @@
         <v>579</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L30" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -3907,16 +4001,18 @@
       <c r="J31" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L31" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
       <c r="S31" s="4" t="s">
         <v>581</v>
       </c>
@@ -3947,19 +4043,23 @@
         <v>582</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L32" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -3993,16 +4093,18 @@
       <c r="J33" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L33" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="4" t="s">
         <v>558</v>
       </c>
@@ -4033,19 +4135,23 @@
         <v>583</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L34" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -4079,16 +4185,18 @@
       <c r="J35" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L35" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -4117,19 +4225,23 @@
         <v>585</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L36" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -4158,19 +4270,23 @@
         <v>586</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L37" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -4204,17 +4320,19 @@
       <c r="J38" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L38" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="M38" s="9"/>
+        <v>708</v>
+      </c>
+      <c r="M38" s="8"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="9" t="s">
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="8" t="s">
         <v>588</v>
       </c>
     </row>
@@ -4244,20 +4362,24 @@
         <v>539</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L39" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="9"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
@@ -4285,19 +4407,23 @@
         <v>589</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L40" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -4326,19 +4452,23 @@
         <v>590</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L41" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -4367,19 +4497,23 @@
         <v>591</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L42" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
@@ -4408,19 +4542,23 @@
         <v>592</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L43" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
       <c r="S43" s="4" t="s">
         <v>593</v>
       </c>
@@ -4453,15 +4591,19 @@
       <c r="I44" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
       <c r="S44" s="4" t="s">
         <v>595</v>
       </c>
@@ -4492,19 +4634,23 @@
         <v>596</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L45" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
       <c r="S45" s="4"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
@@ -4533,19 +4679,23 @@
         <v>597</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L46" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
       <c r="S46" s="4"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
@@ -4574,19 +4724,23 @@
         <v>598</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L47" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
       <c r="S47" s="4"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -4620,17 +4774,19 @@
       <c r="J48" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L48" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="M48" s="11"/>
+        <v>705</v>
+      </c>
+      <c r="M48" s="10"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
@@ -4663,16 +4819,18 @@
       <c r="J49" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L49" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
       <c r="S49" s="4"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
@@ -4701,19 +4859,23 @@
         <v>601</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L50" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
       <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
@@ -4742,19 +4904,23 @@
         <v>602</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L51" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
       <c r="S51" s="4" t="s">
         <v>603</v>
       </c>
@@ -4790,16 +4956,18 @@
       <c r="J52" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L52" s="4" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
       <c r="S52" s="4" t="s">
         <v>605</v>
       </c>
@@ -4830,19 +4998,23 @@
         <v>606</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L53" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
       <c r="S53" s="4"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -4871,19 +5043,23 @@
         <v>607</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L54" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
       <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
@@ -4917,16 +5093,18 @@
       <c r="J55" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
       <c r="S55" s="4" t="s">
         <v>609</v>
       </c>
@@ -4957,19 +5135,23 @@
         <v>610</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L56" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
       <c r="S56" s="4"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -5003,16 +5185,18 @@
       <c r="J57" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L57" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="4"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
@@ -5041,20 +5225,24 @@
         <v>612</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L58" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M58" s="11"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
@@ -5087,16 +5275,18 @@
       <c r="J59" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L59" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
       <c r="S59" s="4"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
@@ -5127,15 +5317,19 @@
       <c r="I60" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="4"/>
+      <c r="J60" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
       <c r="S60" s="4" t="s">
         <v>615</v>
       </c>
@@ -5166,19 +5360,23 @@
         <v>616</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L61" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
       <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -5212,16 +5410,18 @@
       <c r="J62" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L62" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
@@ -5255,16 +5455,18 @@
       <c r="J63" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L63" s="4" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
       <c r="S63" s="4"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -5293,19 +5495,23 @@
         <v>619</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L64" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
       <c r="S64" s="4"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -5339,16 +5545,18 @@
       <c r="J65" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L65" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
       <c r="S65" s="4" t="s">
         <v>545</v>
       </c>
@@ -5375,21 +5583,25 @@
       <c r="G66" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="12" t="s">
         <v>621</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="4"/>
+      <c r="J66" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
       <c r="S66" s="4" t="s">
         <v>622</v>
       </c>
@@ -5420,19 +5632,23 @@
         <v>623</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L67" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
       <c r="S67" s="4"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -5466,16 +5682,18 @@
       <c r="J68" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="K68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L68" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
       <c r="S68" s="4"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
@@ -5504,19 +5722,23 @@
         <v>626</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L69" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
       <c r="S69" s="4"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -5545,19 +5767,23 @@
         <v>584</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L70" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
       <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
@@ -5586,19 +5812,23 @@
         <v>627</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L71" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
       <c r="S71" s="4"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
@@ -5627,19 +5857,23 @@
         <v>628</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L72" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
       <c r="S72" s="4"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -5668,19 +5902,23 @@
         <v>629</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L73" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
       <c r="S73" s="4"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -5714,16 +5952,18 @@
       <c r="J74" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L74" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
       <c r="S74" s="4" t="s">
         <v>558</v>
       </c>
@@ -5754,19 +5994,23 @@
         <v>631</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L75" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
       <c r="S75" s="4"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
@@ -5795,19 +6039,23 @@
         <v>632</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L76" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
       <c r="S76" s="4"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
@@ -5836,19 +6084,23 @@
         <v>633</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L77" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
       <c r="S77" s="4" t="s">
         <v>634</v>
       </c>
@@ -5879,19 +6131,23 @@
         <v>635</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L78" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -5920,19 +6176,23 @@
         <v>636</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L79" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
       <c r="S79" s="4"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
@@ -5961,19 +6221,23 @@
         <v>637</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J80" s="7"/>
-      <c r="K80" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L80" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
       <c r="S80" s="4"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -6007,16 +6271,18 @@
       <c r="J81" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L81" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
       <c r="S81" s="4" t="s">
         <v>558</v>
       </c>
@@ -6052,16 +6318,18 @@
       <c r="J82" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L82" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
       <c r="S82" s="4"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
@@ -6093,18 +6361,20 @@
         <v>538</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="K83" s="4"/>
+        <v>715</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L83" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
       <c r="S83" s="4"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
@@ -6136,18 +6406,20 @@
         <v>538</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="K84" s="4"/>
+        <v>698</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L84" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
       <c r="S84" s="4" t="s">
         <v>641</v>
       </c>
@@ -6183,16 +6455,18 @@
       <c r="J85" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
       <c r="S85" s="4"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -6221,19 +6495,23 @@
         <v>643</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L86" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
       <c r="S86" s="4"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -6262,19 +6540,23 @@
         <v>644</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J87" s="7"/>
-      <c r="K87" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L87" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
       <c r="S87" s="4"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
@@ -6303,20 +6585,24 @@
         <v>645</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L88" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M88" s="11"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
@@ -6349,16 +6635,18 @@
       <c r="J89" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="L89" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
       <c r="S89" s="4" t="s">
         <v>647</v>
       </c>
@@ -6389,19 +6677,23 @@
         <v>648</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L90" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
       <c r="S90" s="4"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
@@ -6432,15 +6724,19 @@
       <c r="I91" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="4"/>
+      <c r="J91" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
       <c r="S91" s="4" t="s">
         <v>650</v>
       </c>
@@ -6476,16 +6772,18 @@
       <c r="J92" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L92" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
       <c r="S92" s="4" t="s">
         <v>652</v>
       </c>
@@ -6516,19 +6814,23 @@
         <v>651</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L93" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
       <c r="S93" s="4" t="s">
         <v>653</v>
       </c>
@@ -6559,19 +6861,23 @@
         <v>654</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J94" s="7"/>
-      <c r="K94" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L94" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
       <c r="S94" s="4"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
@@ -6605,16 +6911,18 @@
       <c r="J95" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L95" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
       <c r="S95" s="4" t="s">
         <v>609</v>
       </c>
@@ -6650,16 +6958,18 @@
       <c r="J96" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
       <c r="S96" s="4" t="s">
         <v>558</v>
       </c>
@@ -6690,19 +7000,23 @@
         <v>657</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J97" s="7"/>
-      <c r="K97" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L97" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
       <c r="S97" s="4"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
@@ -6731,19 +7045,23 @@
         <v>600</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J98" s="7"/>
-      <c r="K98" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L98" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
       <c r="S98" s="4"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
@@ -6777,16 +7095,18 @@
       <c r="J99" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
       <c r="S99" s="4" t="s">
         <v>545</v>
       </c>
@@ -6822,16 +7142,18 @@
       <c r="J100" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L100" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
       <c r="S100" s="4" t="s">
         <v>558</v>
       </c>
@@ -6862,19 +7184,23 @@
         <v>660</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L101" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -6903,19 +7229,23 @@
         <v>661</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J102" s="7"/>
-      <c r="K102" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L102" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
       <c r="S102" s="4" t="s">
         <v>662</v>
       </c>
@@ -6946,19 +7276,23 @@
         <v>663</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J103" s="7"/>
-      <c r="K103" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L103" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
       <c r="S103" s="4" t="s">
         <v>664</v>
       </c>
@@ -6989,19 +7323,23 @@
         <v>592</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J104" s="7"/>
-      <c r="K104" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L104" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
       <c r="S104" s="4"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -7033,18 +7371,20 @@
         <v>538</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K105" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L105" s="4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
       <c r="S105" s="4"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -7073,19 +7413,23 @@
         <v>666</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J106" s="7"/>
-      <c r="K106" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L106" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
       <c r="S106" s="4"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
@@ -7114,19 +7458,23 @@
         <v>637</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L107" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
       <c r="S107" s="4"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -7155,19 +7503,23 @@
         <v>667</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J108" s="7"/>
-      <c r="K108" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L108" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
       <c r="S108" s="4"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
@@ -7196,19 +7548,23 @@
         <v>668</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L109" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
       <c r="S109" s="4"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
@@ -7237,19 +7593,23 @@
         <v>669</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L110" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
       <c r="S110" s="4"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -7278,19 +7638,23 @@
         <v>670</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L111" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
       <c r="S111" s="4"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -7321,15 +7685,19 @@
       <c r="I112" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="4"/>
+      <c r="J112" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
       <c r="S112" s="4" t="s">
         <v>672</v>
       </c>
@@ -7365,16 +7733,18 @@
       <c r="J113" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L113" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
       <c r="S113" s="4"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
@@ -7408,16 +7778,18 @@
       <c r="J114" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L114" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
       <c r="S114" s="4"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
@@ -7449,18 +7821,20 @@
         <v>538</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K115" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L115" s="4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
       <c r="S115" s="4" t="s">
         <v>675</v>
       </c>
@@ -7496,16 +7870,18 @@
       <c r="J116" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="L116" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
       <c r="S116" s="4" t="s">
         <v>545</v>
       </c>
@@ -7536,19 +7912,23 @@
         <v>677</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J117" s="7"/>
-      <c r="K117" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L117" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
       <c r="S117" s="4"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
@@ -7582,16 +7962,18 @@
       <c r="J118" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="K118" s="4"/>
+      <c r="K118" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L118" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
       <c r="S118" s="4" t="s">
         <v>680</v>
       </c>
@@ -7627,16 +8009,18 @@
       <c r="J119" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K119" s="4"/>
+      <c r="K119" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L119" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
       <c r="S119" s="4"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
@@ -7670,16 +8054,18 @@
       <c r="J120" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L120" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
       <c r="S120" s="4" t="s">
         <v>682</v>
       </c>
@@ -7715,16 +8101,18 @@
       <c r="J121" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K121" s="4"/>
+      <c r="K121" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L121" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
       <c r="S121" s="4" t="s">
         <v>588</v>
       </c>
@@ -7755,19 +8143,23 @@
         <v>684</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J122" s="7"/>
-      <c r="K122" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L122" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="12"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
       <c r="S122" s="4"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
@@ -7801,16 +8193,18 @@
       <c r="J123" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="K123" s="4"/>
+      <c r="K123" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L123" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="12"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
       <c r="S123" s="4" t="s">
         <v>686</v>
       </c>
@@ -7843,15 +8237,19 @@
       <c r="I124" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J124" s="7"/>
-      <c r="K124" s="4"/>
+      <c r="J124" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
       <c r="S124" s="4" t="s">
         <v>688</v>
       </c>
@@ -7882,19 +8280,23 @@
         <v>689</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J125" s="7"/>
-      <c r="K125" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L125" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
-      <c r="P125" s="12"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
       <c r="S125" s="4"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
@@ -7928,16 +8330,18 @@
       <c r="J126" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K126" s="4"/>
+      <c r="K126" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L126" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
       <c r="S126" s="4" t="s">
         <v>558</v>
       </c>
@@ -7968,19 +8372,23 @@
         <v>691</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J127" s="7"/>
-      <c r="K127" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L127" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
       <c r="S127" s="4"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
@@ -8012,18 +8420,20 @@
         <v>538</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="K128" s="4"/>
+        <v>713</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L128" s="4" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
-      <c r="P128" s="12"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="12"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
       <c r="S128" s="4" t="s">
         <v>545</v>
       </c>
@@ -8051,22 +8461,26 @@
         <v>526</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="J129" s="7"/>
-      <c r="K129" s="4"/>
+      <c r="J129" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
-      <c r="P129" s="12"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
       <c r="S129" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
@@ -8092,22 +8506,26 @@
         <v>530</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="J130" s="7"/>
-      <c r="K130" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="L130" s="4" t="s">
         <v>540</v>
       </c>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="12"/>
-      <c r="R130" s="12"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
       <c r="S130" s="4"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
@@ -8133,7 +8551,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>543</v>
@@ -8141,16 +8559,18 @@
       <c r="J131" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K131" s="4"/>
+      <c r="K131" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="L131" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
-      <c r="P131" s="12"/>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
       <c r="S131" s="4" t="s">
         <v>545</v>
       </c>
